--- a/长期跟踪模型2021.3.12开始/跟踪清单2021.3.12.xlsx
+++ b/长期跟踪模型2021.3.12开始/跟踪清单2021.3.12.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>序号</t>
   </si>
@@ -29,6 +29,9 @@
   <si>
     <t>2021.3.12</t>
   </si>
+  <si>
+    <t>2021.3.26</t>
+  </si>
 </sst>
 </file>
 
@@ -40,7 +43,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,14 +53,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -72,53 +122,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,63 +183,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -209,187 +205,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,21 +399,40 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -441,23 +456,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,26 +488,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,148 +501,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1005,13 +1001,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E14"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -1047,9 +1043,27 @@
         <v>4555</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3612</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4680</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4681</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4928</v>
+      </c>
+      <c r="G3" s="1">
+        <v>7013</v>
       </c>
     </row>
     <row r="4" spans="1:1">

--- a/长期跟踪模型2021.3.12开始/跟踪清单2021.3.12.xlsx
+++ b/长期跟踪模型2021.3.12开始/跟踪清单2021.3.12.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>序号</t>
   </si>
@@ -32,16 +32,19 @@
   <si>
     <t>2021.3.26</t>
   </si>
+  <si>
+    <t>2021.4.8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -52,62 +55,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,10 +78,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,6 +103,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -159,24 +153,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,13 +194,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,13 +208,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,55 +364,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,109 +388,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,36 +399,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -462,6 +435,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -473,16 +476,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -504,10 +507,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +519,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1004,7 +1007,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1066,9 +1069,21 @@
         <v>7013</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5105</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5108</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5406</v>
       </c>
     </row>
     <row r="5" spans="1:1">

--- a/长期跟踪模型2021.3.12开始/跟踪清单2021.3.12.xlsx
+++ b/长期跟踪模型2021.3.12开始/跟踪清单2021.3.12.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>序号</t>
   </si>
@@ -35,16 +35,19 @@
   <si>
     <t>2021.4.8</t>
   </si>
+  <si>
+    <t>2021.4.17</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -52,6 +55,89 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -70,130 +156,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,187 +211,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,6 +402,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -435,17 +462,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,17 +488,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -490,15 +502,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -507,10 +510,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -519,133 +522,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,7 +1010,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1086,9 +1089,24 @@
         <v>5406</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5105</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5108</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5406</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1605</v>
       </c>
     </row>
     <row r="6" spans="1:1">

--- a/长期跟踪模型2021.3.12开始/跟踪清单2021.3.12.xlsx
+++ b/长期跟踪模型2021.3.12开始/跟踪清单2021.3.12.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>序号</t>
   </si>
@@ -38,16 +38,22 @@
   <si>
     <t>2021.4.17</t>
   </si>
+  <si>
+    <t>20201.4.29</t>
+  </si>
+  <si>
+    <t>长短线结合，暂定5406为长期头寸</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -59,38 +65,100 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -102,107 +170,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +217,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -223,175 +397,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,54 +422,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,6 +452,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -510,10 +522,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -522,141 +534,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1007,13 +1022,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -1089,7 +1104,7 @@
         <v>5406</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1102,11 +1117,17 @@
       <c r="D5" s="1">
         <v>5108</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>5406</v>
       </c>
       <c r="F5" s="1">
         <v>1605</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1">
